--- a/data/sourcedata/xdf/sub-12/order_matrix_12_A_block2_VR.xlsx
+++ b/data/sourcedata/xdf/sub-12/order_matrix_12_A_block2_VR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -517,11 +517,11 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_2_text.mp4</t>
+          <t>./instructions_videos/VR/block_4_text.mp4</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -538,30 +538,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A_block2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A_block2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>VR</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>arousal</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -571,11 +571,11 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/11.mp4</t>
+          <t>../stimuli/exp_videos/VR/12.mp4</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -592,7 +592,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -611,11 +611,11 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
+          <t>./instructions_videos/VR/post_stimulus_self_report.mp4</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -632,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -651,11 +651,11 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>./instructions_videos/mareo.mp4</t>
+          <t>./instructions_videos/VR/mareo.mp4</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -691,11 +691,11 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_2_text_reminder.mp4</t>
+          <t>./instructions_videos/VR/block_4_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -712,7 +712,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -730,12 +730,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>arousal</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -745,11 +745,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/5.mp4</t>
+          <t>../stimuli/exp_videos/VR/3.mp4</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -785,11 +785,11 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
+          <t>./instructions_videos/VR/post_stimulus_self_report.mp4</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -806,7 +806,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -825,11 +825,11 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>./instructions_videos/mareo.mp4</t>
+          <t>./instructions_videos/VR/mareo.mp4</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -865,11 +865,11 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_2_text_reminder.mp4</t>
+          <t>./instructions_videos/VR/block_4_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -886,7 +886,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -904,26 +904,26 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>arousal</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">inverse </t>
+          <t>inverse</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/1.mp4</t>
+          <t>../stimuli/exp_videos/VR/2.mp4</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -940,7 +940,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -959,11 +959,11 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
+          <t>./instructions_videos/VR/post_stimulus_self_report.mp4</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -980,7 +980,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -999,11 +999,11 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>./instructions_videos/mareo.mp4</t>
+          <t>./instructions_videos/VR/mareo.mp4</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1020,7 +1020,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1039,12 +1039,10 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_2_text_reminder.mp4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
+          <t>./instructions_videos/VR/luminance_instructions_inverse.mp4</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>1</v>
       </c>
@@ -1053,14 +1051,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>luminance_instructions</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1076,14 +1074,10 @@
       <c r="D15" t="n">
         <v>4</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>arousal</t>
+          <t>luminance</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1093,12 +1087,10 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/10.mp4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
+          <t>../stimuli/exp_videos/VR/green_intensity_video_12.mp4</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>1</v>
       </c>
@@ -1107,14 +1099,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>luminance</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1133,12 +1125,10 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
+          <t>./instructions_videos/VR/confidence_luminance_practice_instructions_text.mp4</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>1</v>
       </c>
@@ -1147,14 +1137,14 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>post_stimulus_self_report</t>
+          <t>confidence_luminance_instructions</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1173,12 +1163,10 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>./instructions_videos/mareo.mp4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
+          <t>./instructions_videos/VR/rest_suprablock_text.mp4</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>1</v>
       </c>
@@ -1186,168 +1174,6 @@
         <v>2</v>
       </c>
       <c r="L17" t="inlineStr">
-        <is>
-          <t>motion_sickness</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>A_block2</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>VR</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>./instructions_videos/luminance_instructions_inverse.mp4</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>luminance_instructions</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>A_block2</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>VR</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>5</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>luminance</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>inverse</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>../stimuli/exp_videos/VR/green_intensity_video_7.mp4</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>luminance</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>A_block2</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>VR</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>./instructions_videos/confidence_luminance_practice_instructions_text.mp4</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>confidence_luminance_instructions</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>A_block2</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>VR</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>./instructions_videos/rest_suprablock_text.mp4</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" t="inlineStr">
         <is>
           <t>rest_suprablock</t>
         </is>
